--- a/data/target_VS_outcome_v2.xlsx
+++ b/data/target_VS_outcome_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oussk\Downloads\ald_v2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oussk\Downloads\ECG_anomaly_detection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760F6322-1C87-45EA-AD66-17754A4DD35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FCA2E2-2FBB-441A-A57B-A3693E464B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B2C9B84D-24C8-434B-93DF-C917E358203F}"/>
+    <workbookView xWindow="16950" yWindow="375" windowWidth="11850" windowHeight="14850" xr2:uid="{B2C9B84D-24C8-434B-93DF-C917E358203F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>Prediction score</t>
   </si>
   <si>
-    <t>correct: 29/48 = 61,3%</t>
+    <t>29/48</t>
   </si>
 </sst>
 </file>
@@ -88,27 +88,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -248,32 +233,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -285,30 +271,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,7 +716,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:I14"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,156 +728,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>100</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>101</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>102</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>103</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>104</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
         <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>105</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>106</v>
       </c>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>107</v>
       </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
         <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>108</v>
       </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>109</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
         <v>250</v>
       </c>
       <c r="G11" s="15" t="s">
@@ -914,16 +887,16 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>111</v>
       </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
         <v>122</v>
       </c>
       <c r="G12" s="15"/>
@@ -931,16 +904,16 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>112</v>
       </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
         <v>51</v>
       </c>
       <c r="G13" s="15"/>
@@ -948,16 +921,16 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>113</v>
       </c>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
         <v>51</v>
       </c>
       <c r="G14" s="15"/>
@@ -965,494 +938,494 @@
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>114</v>
       </c>
-      <c r="B15" s="8">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
         <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>115</v>
       </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
         <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>116</v>
       </c>
-      <c r="B17" s="8">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
         <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>117</v>
       </c>
-      <c r="B18" s="8">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
         <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>118</v>
       </c>
-      <c r="B19" s="5">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
         <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>119</v>
       </c>
-      <c r="B20" s="5">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>121</v>
       </c>
-      <c r="B21" s="5">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
         <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+      <c r="A22" s="2">
         <v>122</v>
       </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="21">
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>123</v>
       </c>
-      <c r="B23" s="18">
-        <v>0</v>
-      </c>
-      <c r="C23" s="19">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="B23" s="6">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
         <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>124</v>
       </c>
-      <c r="B24" s="18">
-        <v>0</v>
-      </c>
-      <c r="C24" s="19">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
         <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>200</v>
       </c>
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-      <c r="C25" s="6">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
         <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>201</v>
       </c>
-      <c r="B26" s="5">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>202</v>
       </c>
-      <c r="B27" s="8">
-        <v>0</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
         <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>203</v>
       </c>
-      <c r="B28" s="5">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>205</v>
       </c>
-      <c r="B29" s="8">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="B29" s="6">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>207</v>
       </c>
-      <c r="B30" s="8">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
+      <c r="B30" s="6">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
         <v>51</v>
       </c>
-      <c r="J30" s="3"/>
+      <c r="J30" s="17"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>208</v>
       </c>
-      <c r="B31" s="8">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>209</v>
       </c>
-      <c r="B32" s="8">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="B32" s="6">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
         <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>210</v>
       </c>
-      <c r="B33" s="8">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="B33" s="6">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
         <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>212</v>
       </c>
-      <c r="B34" s="5">
-        <v>1</v>
-      </c>
-      <c r="C34" s="6">
-        <v>1</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>213</v>
       </c>
-      <c r="B35" s="8">
-        <v>0</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7">
+      <c r="B35" s="6">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
         <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>214</v>
       </c>
-      <c r="B36" s="5">
-        <v>1</v>
-      </c>
-      <c r="C36" s="6">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
         <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>215</v>
       </c>
-      <c r="B37" s="5">
-        <v>0</v>
-      </c>
-      <c r="C37" s="6">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7">
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>217</v>
       </c>
-      <c r="B38" s="8">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7">
+      <c r="B38" s="6">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>219</v>
       </c>
-      <c r="B39" s="8">
-        <v>0</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="7">
+      <c r="B39" s="6">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
         <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>220</v>
       </c>
-      <c r="B40" s="5">
-        <v>0</v>
-      </c>
-      <c r="C40" s="6">
-        <v>0</v>
-      </c>
-      <c r="D40" s="7">
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5">
         <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>221</v>
       </c>
-      <c r="B41" s="5">
-        <v>1</v>
-      </c>
-      <c r="C41" s="6">
-        <v>1</v>
-      </c>
-      <c r="D41" s="7">
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
         <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="2">
         <v>222</v>
       </c>
-      <c r="B42" s="5">
-        <v>0</v>
-      </c>
-      <c r="C42" s="6">
-        <v>0</v>
-      </c>
-      <c r="D42" s="7">
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="5">
         <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="2">
         <v>223</v>
       </c>
-      <c r="B43" s="5">
-        <v>0</v>
-      </c>
-      <c r="C43" s="6">
-        <v>0</v>
-      </c>
-      <c r="D43" s="7">
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="2">
         <v>228</v>
       </c>
-      <c r="B44" s="5">
-        <v>0</v>
-      </c>
-      <c r="C44" s="6">
-        <v>0</v>
-      </c>
-      <c r="D44" s="7">
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="2">
         <v>230</v>
       </c>
-      <c r="B45" s="18">
-        <v>0</v>
-      </c>
-      <c r="C45" s="19">
-        <v>1</v>
-      </c>
-      <c r="D45" s="7">
+      <c r="B45" s="6">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5">
         <v>112</v>
       </c>
-      <c r="H45" s="1"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="2">
         <v>231</v>
       </c>
-      <c r="B46" s="8">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0</v>
-      </c>
-      <c r="D46" s="7">
+      <c r="B46" s="6">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="2">
         <v>232</v>
       </c>
-      <c r="B47" s="5">
-        <v>1</v>
-      </c>
-      <c r="C47" s="6">
-        <v>1</v>
-      </c>
-      <c r="D47" s="7">
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5">
         <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="2">
         <v>233</v>
       </c>
-      <c r="B48" s="5">
-        <v>1</v>
-      </c>
-      <c r="C48" s="6">
-        <v>1</v>
-      </c>
-      <c r="D48" s="7">
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5">
         <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
+      <c r="A49" s="7">
         <v>234</v>
       </c>
-      <c r="B49" s="16">
-        <v>0</v>
-      </c>
-      <c r="C49" s="17">
-        <v>1</v>
-      </c>
-      <c r="D49" s="10">
+      <c r="B49" s="13">
+        <v>0</v>
+      </c>
+      <c r="C49" s="14">
+        <v>1</v>
+      </c>
+      <c r="D49" s="8">
         <v>109</v>
       </c>
     </row>
